--- a/Verifies.xlsx
+++ b/Verifies.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AmericanExpress" sheetId="1" r:id="rId1"/>
     <sheet name="Visa" sheetId="2" r:id="rId2"/>
     <sheet name="FullName" sheetId="3" r:id="rId3"/>
-    <sheet name="VisaAdyen" sheetId="4" r:id="rId4"/>
-    <sheet name="3DSUser" sheetId="11" r:id="rId5"/>
+    <sheet name="Username" sheetId="4" r:id="rId4"/>
+    <sheet name="Password" sheetId="11" r:id="rId5"/>
     <sheet name="WPMC3DS" sheetId="5" r:id="rId6"/>
     <sheet name="WPAMEX3DS" sheetId="6" r:id="rId7"/>
     <sheet name="WPVISA3DS" sheetId="7" r:id="rId8"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
   <si>
     <t>CardNumber</t>
   </si>
@@ -59,18 +59,12 @@
     <t>4444333322221111</t>
   </si>
   <si>
-    <t>5555444433331111</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
     <t>737</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
     <t>3DS</t>
   </si>
   <si>
@@ -98,18 +92,6 @@
     <t>7373</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>Empty</t>
   </si>
   <si>
@@ -138,6 +120,75 @@
   </si>
   <si>
     <t>SpecialSymbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username </t>
+  </si>
+  <si>
+    <t>TheUsernameWithMoreThan32Characte</t>
+  </si>
+  <si>
+    <t>Chara</t>
+  </si>
+  <si>
+    <t>A!@#$%</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Existing</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>StartWithLatin</t>
+  </si>
+  <si>
+    <t>LatinOnly</t>
+  </si>
+  <si>
+    <t>NotStartWithLatin</t>
+  </si>
+  <si>
+    <t>NotLatinOnly</t>
+  </si>
+  <si>
+    <t>1Latin</t>
+  </si>
+  <si>
+    <t>Тестер</t>
+  </si>
+  <si>
+    <t>Splendor</t>
+  </si>
+  <si>
+    <t>Nymgo</t>
+  </si>
+  <si>
+    <t>Ahwar</t>
+  </si>
+  <si>
+    <t>Callback</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Voip</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>Tester_.tester</t>
+  </si>
+  <si>
+    <t>ConsecutiveSpecial</t>
   </si>
 </sst>
 </file>
@@ -526,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -586,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -613,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -629,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -637,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -645,7 +696,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -716,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,48 +779,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -779,56 +830,150 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -839,32 +984,88 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -907,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,7 +1124,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -966,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1033,7 +1234,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1041,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1068,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1084,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1092,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1100,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Verifies.xlsx
+++ b/Verifies.xlsx
@@ -4,93 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="AmericanExpress" sheetId="1" r:id="rId1"/>
-    <sheet name="Visa" sheetId="2" r:id="rId2"/>
-    <sheet name="FullName" sheetId="3" r:id="rId3"/>
-    <sheet name="Username" sheetId="4" r:id="rId4"/>
-    <sheet name="Password" sheetId="11" r:id="rId5"/>
-    <sheet name="WPMC3DS" sheetId="5" r:id="rId6"/>
-    <sheet name="WPAMEX3DS" sheetId="6" r:id="rId7"/>
-    <sheet name="WPVISA3DS" sheetId="7" r:id="rId8"/>
-    <sheet name="ADYENMC3DS" sheetId="8" r:id="rId9"/>
-    <sheet name="ADYENAMEX3DS" sheetId="9" r:id="rId10"/>
-    <sheet name="ADYENVISA3DS" sheetId="10" r:id="rId11"/>
+    <sheet name="FullName" sheetId="3" r:id="rId1"/>
+    <sheet name="Username" sheetId="4" r:id="rId2"/>
+    <sheet name="Password" sheetId="11" r:id="rId3"/>
+    <sheet name="ConfirmPassword" sheetId="12" r:id="rId4"/>
+    <sheet name="Email" sheetId="13" r:id="rId5"/>
+    <sheet name="Mobile" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
-  <si>
-    <t>CardNumber</t>
-  </si>
-  <si>
-    <t>ExpirationMonth</t>
-  </si>
-  <si>
-    <t>ExpirationYear</t>
-  </si>
-  <si>
-    <t>CVV</t>
-  </si>
-  <si>
-    <t>34343434343434</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>042</t>
-  </si>
-  <si>
-    <t>CardholdersName</t>
-  </si>
-  <si>
-    <t>Test Card</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>4444333322221111</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>3DS</t>
-  </si>
-  <si>
-    <t>5555555555554444</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>5212345678901234</t>
-  </si>
-  <si>
-    <t>345177925488348</t>
-  </si>
-  <si>
-    <t>4212345678901237</t>
-  </si>
-  <si>
-    <t>7373</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
   <si>
     <t>Empty</t>
   </si>
@@ -146,12 +75,6 @@
     <t>tester</t>
   </si>
   <si>
-    <t>StartWithLatin</t>
-  </si>
-  <si>
-    <t>LatinOnly</t>
-  </si>
-  <si>
     <t>NotStartWithLatin</t>
   </si>
   <si>
@@ -189,6 +112,69 @@
   </si>
   <si>
     <t>ConsecutiveSpecial</t>
+  </si>
+  <si>
+    <t>Passw</t>
+  </si>
+  <si>
+    <t>PasswordWithMoreThan2</t>
+  </si>
+  <si>
+    <t>ContainSpace</t>
+  </si>
+  <si>
+    <t>Pass word</t>
+  </si>
+  <si>
+    <t>ContainSemicolon</t>
+  </si>
+  <si>
+    <t>Pass;word</t>
+  </si>
+  <si>
+    <t>IdenticalToUsername</t>
+  </si>
+  <si>
+    <t>UsernamePassword</t>
+  </si>
+  <si>
+    <t>DisplayAs</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>CaseSensitive</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>MatchPassword</t>
+  </si>
+  <si>
+    <t>Uppercase</t>
+  </si>
+  <si>
+    <t>Lowercase</t>
+  </si>
+  <si>
+    <t>Digits</t>
+  </si>
+  <si>
+    <t>SpecialCharacters</t>
+  </si>
+  <si>
+    <t>StartWithDot</t>
+  </si>
+  <si>
+    <t>EndWithDot</t>
+  </si>
+  <si>
+    <t>ConsecutiveDots</t>
+  </si>
+  <si>
+    <t>InvalidDomain</t>
   </si>
 </sst>
 </file>
@@ -528,243 +514,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -779,48 +528,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -828,12 +577,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,136 +593,136 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -982,12 +731,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,74 +747,232 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1075,233 +982,124 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Verifies.xlsx
+++ b/Verifies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FullName" sheetId="3" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="Password" sheetId="11" r:id="rId3"/>
     <sheet name="ConfirmPassword" sheetId="12" r:id="rId4"/>
     <sheet name="Email" sheetId="13" r:id="rId5"/>
-    <sheet name="Mobile" sheetId="14" r:id="rId6"/>
+    <sheet name="EmailSuccess" sheetId="15" r:id="rId6"/>
+    <sheet name="Mobile" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="121">
   <si>
     <t>Empty</t>
   </si>
@@ -87,24 +88,6 @@
     <t>Тестер</t>
   </si>
   <si>
-    <t>Splendor</t>
-  </si>
-  <si>
-    <t>Nymgo</t>
-  </si>
-  <si>
-    <t>Ahwar</t>
-  </si>
-  <si>
-    <t>Callback</t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>Voip</t>
-  </si>
-  <si>
     <t>Reserved</t>
   </si>
   <si>
@@ -175,6 +158,231 @@
   </si>
   <si>
     <t>InvalidDomain</t>
+  </si>
+  <si>
+    <t>0123456789@test.com</t>
+  </si>
+  <si>
+    <t>e^mail@test.com</t>
+  </si>
+  <si>
+    <t>e!mail@test.com</t>
+  </si>
+  <si>
+    <t>e#mail@test.com</t>
+  </si>
+  <si>
+    <t>e$mail@test.com</t>
+  </si>
+  <si>
+    <t>e%mail@test.com</t>
+  </si>
+  <si>
+    <t>e&amp;mail@test.com</t>
+  </si>
+  <si>
+    <t>e*mail@test.com</t>
+  </si>
+  <si>
+    <t>e(mail@test.com</t>
+  </si>
+  <si>
+    <t>e)mail@test.com</t>
+  </si>
+  <si>
+    <t>e+mail@test.com</t>
+  </si>
+  <si>
+    <t>e=mail@test.com</t>
+  </si>
+  <si>
+    <t>e;mail@test.com</t>
+  </si>
+  <si>
+    <t>e:mail@test.com</t>
+  </si>
+  <si>
+    <t>e&lt;mail@test.com</t>
+  </si>
+  <si>
+    <t>e&gt;mail@test.com</t>
+  </si>
+  <si>
+    <t>e,mail@test.com</t>
+  </si>
+  <si>
+    <t>e/mail@test.com</t>
+  </si>
+  <si>
+    <t>e\mail@test.com</t>
+  </si>
+  <si>
+    <t>e[mail@test.com</t>
+  </si>
+  <si>
+    <t>e]mail@test.com</t>
+  </si>
+  <si>
+    <t>e{mail@test.com</t>
+  </si>
+  <si>
+    <t>e}mail@test.com</t>
+  </si>
+  <si>
+    <t>TESTEMAIL@TEST.COM</t>
+  </si>
+  <si>
+    <t>testemail@test.com</t>
+  </si>
+  <si>
+    <t>e.mail@test.com</t>
+  </si>
+  <si>
+    <t>e_mail@test.com</t>
+  </si>
+  <si>
+    <t>e-mail@test.com</t>
+  </si>
+  <si>
+    <t>.email@test.com</t>
+  </si>
+  <si>
+    <t>email@test.com.</t>
+  </si>
+  <si>
+    <t>e..mail@test.com</t>
+  </si>
+  <si>
+    <t>test@test.test</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>SplendorEmail@test.com</t>
+  </si>
+  <si>
+    <t>NymgoEmail@test.com</t>
+  </si>
+  <si>
+    <t>AhwarEmail@test.com</t>
+  </si>
+  <si>
+    <t>CallbackEmail@test.com</t>
+  </si>
+  <si>
+    <t>FreeEmail@test.com</t>
+  </si>
+  <si>
+    <t>VoipEmail@test.com</t>
+  </si>
+  <si>
+    <t>e mail@test.com</t>
+  </si>
+  <si>
+    <t>SplendorName</t>
+  </si>
+  <si>
+    <t>NymgoName</t>
+  </si>
+  <si>
+    <t>AhwarName</t>
+  </si>
+  <si>
+    <t>CallbackName</t>
+  </si>
+  <si>
+    <t>FreeName</t>
+  </si>
+  <si>
+    <t>VoipName</t>
+  </si>
+  <si>
+    <t>InvalidPattern</t>
+  </si>
+  <si>
+    <t>111111111111111111111</t>
+  </si>
+  <si>
+    <t>a1111111</t>
+  </si>
+  <si>
+    <t>!1111111</t>
+  </si>
+  <si>
+    <t>@111111</t>
+  </si>
+  <si>
+    <t>#1111111</t>
+  </si>
+  <si>
+    <t>$1111111</t>
+  </si>
+  <si>
+    <t>%1111111</t>
+  </si>
+  <si>
+    <t>^1111111</t>
+  </si>
+  <si>
+    <t>&amp;1111111</t>
+  </si>
+  <si>
+    <t>*1111111</t>
+  </si>
+  <si>
+    <t>(1111111</t>
+  </si>
+  <si>
+    <t>)1111111</t>
+  </si>
+  <si>
+    <t>{1111111</t>
+  </si>
+  <si>
+    <t>}1111111</t>
+  </si>
+  <si>
+    <t>[1111111</t>
+  </si>
+  <si>
+    <t>]1111111</t>
+  </si>
+  <si>
+    <t>:1111111</t>
+  </si>
+  <si>
+    <t>;1111111</t>
+  </si>
+  <si>
+    <t>"1111111</t>
+  </si>
+  <si>
+    <t>\1111111</t>
+  </si>
+  <si>
+    <t>/1111111</t>
+  </si>
+  <si>
+    <t>&lt;1111111</t>
+  </si>
+  <si>
+    <t>&gt;1111111</t>
+  </si>
+  <si>
+    <t>1'111111</t>
+  </si>
+  <si>
+    <t>.1111111</t>
+  </si>
+  <si>
+    <t>-1111111</t>
+  </si>
+  <si>
+    <t>=1111111</t>
+  </si>
+  <si>
+    <t>_1111111</t>
   </si>
 </sst>
 </file>
@@ -210,9 +418,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,7 +792,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,58 +881,58 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -753,18 +963,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -772,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,23 +990,23 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -826,26 +1036,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -855,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,104 +1085,274 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -982,10 +1362,77 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,107 +1449,238 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1111111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>92</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>92</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>92</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Verifies.xlsx
+++ b/Verifies.xlsx
@@ -4,23 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="FullName" sheetId="3" r:id="rId1"/>
-    <sheet name="Username" sheetId="4" r:id="rId2"/>
-    <sheet name="Password" sheetId="11" r:id="rId3"/>
-    <sheet name="ConfirmPassword" sheetId="12" r:id="rId4"/>
-    <sheet name="Email" sheetId="13" r:id="rId5"/>
-    <sheet name="EmailSuccess" sheetId="15" r:id="rId6"/>
-    <sheet name="Mobile" sheetId="14" r:id="rId7"/>
+    <sheet name="BusinessName" sheetId="16" r:id="rId2"/>
+    <sheet name="Username" sheetId="4" r:id="rId3"/>
+    <sheet name="Password" sheetId="11" r:id="rId4"/>
+    <sheet name="ConfirmPassword" sheetId="12" r:id="rId5"/>
+    <sheet name="Email" sheetId="13" r:id="rId6"/>
+    <sheet name="EmailSuccess" sheetId="15" r:id="rId7"/>
+    <sheet name="Phone" sheetId="17" r:id="rId8"/>
+    <sheet name="Mobile" sheetId="14" r:id="rId9"/>
+    <sheet name="CountryOfResidence" sheetId="22" r:id="rId10"/>
+    <sheet name="City" sheetId="18" r:id="rId11"/>
+    <sheet name="FullAddress" sheetId="19" r:id="rId12"/>
+    <sheet name="Street" sheetId="20" r:id="rId13"/>
+    <sheet name="PostalCode" sheetId="21" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="133">
   <si>
     <t>Empty</t>
   </si>
@@ -383,6 +390,42 @@
   </si>
   <si>
     <t>_1111111</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>!@#$%^*()</t>
+  </si>
+  <si>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>1 111111</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>TheFullAddressWithMoreThan100Characters!@#$%^&amp;*()TheFullAddressWithMoreThan100Characters{}[]/\&lt;&gt;;:'"|</t>
+  </si>
+  <si>
+    <t>TheStreetWithMoreThan100Characters!@#$%^&amp;*()TheStreetWithMoreThan100Characters{}[]/\&lt;&gt;;:'"|TheStreetW</t>
+  </si>
+  <si>
+    <t>TheCityWithMoreThan100Characters!@#$%^&amp;*()TheCityWithMoreThan100Characters{}[]/\&lt;&gt;;:'"|TheCityWithMor</t>
+  </si>
+  <si>
+    <t>Ci</t>
+  </si>
+  <si>
+    <t>11111111111111111</t>
+  </si>
+  <si>
+    <t>+1111111</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -418,11 +461,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,7 +769,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,16 +812,24 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -787,12 +837,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,6 +857,508 @@
       </c>
       <c r="B1" s="1"/>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="101.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="101.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="102.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
@@ -941,7 +1493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1014,12 +1566,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -1360,7 +1912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1427,12 +1979,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,8 +2011,8 @@
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="3">
-        <v>1111111</v>
+      <c r="B3" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,6 +2229,280 @@
       </c>
       <c r="B30" s="1" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
